--- a/medicine/Enfance/Brigade_de_prévention_de_la_délinquance_juvénile/Brigade_de_prévention_de_la_délinquance_juvénile.xlsx
+++ b/medicine/Enfance/Brigade_de_prévention_de_la_délinquance_juvénile/Brigade_de_prévention_de_la_délinquance_juvénile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brigade_de_pr%C3%A9vention_de_la_d%C3%A9linquance_juv%C3%A9nile</t>
+          <t>Brigade_de_prévention_de_la_délinquance_juvénile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brigade de prévention de la délinquance juvénile (BPDJ) est une unité spécialisée de la Gendarmerie nationale française.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brigade_de_pr%C3%A9vention_de_la_d%C3%A9linquance_juv%C3%A9nile</t>
+          <t>Brigade_de_prévention_de_la_délinquance_juvénile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brigade de prévention de la délinquance juvénile exerce ses missions au niveau du groupement de gendarmerie, c'est-à-dire sur un département, là où la gendarmerie exerce ses missions de sécurité publique.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brigade_de_pr%C3%A9vention_de_la_d%C3%A9linquance_juv%C3%A9nile</t>
+          <t>Brigade_de_prévention_de_la_délinquance_juvénile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gendarmes qui composent cette unité ont un rôle préventif envers les jeunes afin de les protéger des incivilités et de la délinquance (délinquance juvénile).
 L'action de cette unité se fait en partenariat avec les établissements scolaires. Les militaires y font des séances de sensibilisation aux dangers sur l'alcool, la drogue et internet. Cette unité travaille également en collaboration avec les personnels de la protection judiciaire de la jeunesse, magistrats spécialisés, éducateurs, travailleurs sociaux, représentants des services de secours, de la police municipale et les agents locaux de médiation sociale afin de déceler et signaler les comportements à risques ou les enfants en danger.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brigade_de_pr%C3%A9vention_de_la_d%C3%A9linquance_juv%C3%A9nile</t>
+          <t>Brigade_de_prévention_de_la_délinquance_juvénile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Brigade de prévention de la délinquance juvénile - Gendarmerie spécialisée - site : Violencescolaire.fr
 [doc] Liste des BPDJ - Site de la Gendarmerie Nationale - 2011
